--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Compras" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Produtos" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -455,12 +456,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>preco_medio</t>
+          <t>ultimo_preco</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ultimo_preco</t>
+          <t>penultimo_preco</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -476,185 +477,193 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3020</v>
+        <v>1140501</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>X BIC. ARO 20 MTB S/M  EVOLUTION MASCULINA VERMELHA</t>
+          <t>ALAVANCA CAMBIO/FREIO ST-EF500 EZ FIRE PARA V BRAKE 3V ESQ P</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>183.78</v>
+        <v>61.38</v>
       </c>
       <c r="E2" t="n">
-        <v>183.78</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>45915.32291666666</v>
+        <v>61.38</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>45960.55902777778</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31250910594758000159550010000909261581399408</t>
+          <t>42251022705434000120550010003873811961780581</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4005</v>
+        <v>1140499</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIC. ARO 16 BABY BOY MASCULINA VERDE</t>
+          <t>ALAVANCA CAMBIO/FREIO ST-EF500 EZ FIRE PARA V BRAKE 7V DIR P</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>194.495</v>
+        <v>61.38</v>
       </c>
       <c r="E3" t="n">
-        <v>194.495</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>45975.33541666667</v>
+        <v>61.38</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>45960.55902777778</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>31251110594758000159550010000926651284940559</t>
+          <t>42251022705434000120550010003873811961780581</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>40056</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>40052</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIC. ARO 16 BABY GIRL BRANCA FEMININA COM CESTINHA LILAS</t>
+          <t>BIC. ARO 16 BABY BOY MASCULINA AZUL</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>194.495</v>
+        <v>194.49</v>
       </c>
       <c r="E4" t="n">
-        <v>194.495</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>45975.33541666667</v>
+        <v>194.49</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>45887.63888888889</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>31251110594758000159550010000926651284940559</t>
+          <t>31250810594758000159550010000900171169402985</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>40062</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>40054</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIC. ARO 16 BABY GIRL LILAS FEMININA COM CESTINHA ROSA</t>
+          <t>BIC. ARO 16 BABY BOY MASCULINA GRAFITE</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>194.495</v>
+        <v>194.49</v>
       </c>
       <c r="E5" t="n">
-        <v>194.495</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45975.33541666667</v>
+        <v>194.49</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>45887.63888888889</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>31251110594758000159550010000926651284940559</t>
+          <t>31250810594758000159550010000900171169402985</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>40061</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>40055</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIC. ARO 16 BABY GIRL ROSA FEMININA COM CESTINHA ROSA</t>
+          <t>BIC. ARO 16 BABY BOY MASCULINA NEON AMAR.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>194.4933333333</v>
+        <v>194.49</v>
       </c>
       <c r="E6" t="n">
-        <v>194.4933333333</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>45975.33541666667</v>
+        <v>194.49</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>45887.63888888889</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>31251110594758000159550010000926651284940559</t>
+          <t>31250810594758000159550010000900171169402985</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>40252</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>40057</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIC. ARO 20 MTB S/M CHARMY FEMININA C/ CESTAO - LILAS</t>
+          <t>BIC. ARO 16 BABY BOY MASCULINA PRETA SEM PLATE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>227.435</v>
+        <v>194.49</v>
       </c>
       <c r="E7" t="n">
-        <v>227.435</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>45975.33541666667</v>
+        <v>194.49</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>45887.63888888889</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>31251110594758000159550010000926651284940559</t>
+          <t>31250810594758000159550010000900171169402985</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>402512</v>
+        <v>4005</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIC. ARO 20 MTB S/M CHARMY FEMININA C/ CESTAO - ROSA</t>
+          <t>BIC. ARO 16 BABY BOY MASCULINA VERDE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>227.4333333333</v>
+        <v>194.495</v>
       </c>
       <c r="E8" t="n">
-        <v>227.4333333333</v>
-      </c>
-      <c r="F8" s="2" t="n">
+        <v>194.495</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <v>45975.33541666667</v>
       </c>
       <c r="G8" t="inlineStr">
@@ -664,348 +673,354 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>91889</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>40051</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JG. FREIO SUECO TRASEIRO COMPLETO KANAMURA KK13</t>
+          <t>BIC. ARO 16 BABY BOY MASCULINA VERMELHA</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>36.625</v>
+        <v>194.495</v>
       </c>
       <c r="E9" t="n">
-        <v>36.625</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>45905.42013888889</v>
+        <v>194.495</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>45887.63888888889</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>31250903585187000120550010002994471597353431</t>
+          <t>31250810594758000159550010000900171169402985</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>19950</v>
+        <v>40056</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BICI RAVA PRESSURE 21V C/CAMBIO 29"X17" CZ/PT NAC.</t>
+          <t>BIC. ARO 16 BABY GIRL BRANCA FEMININA COM CESTINHA LILAS</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>726.3636299999999</v>
+        <v>194.495</v>
       </c>
       <c r="E10" t="n">
-        <v>726.3636299999999</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>45320.37512731482</v>
+        <v>194.495</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>45975.33541666667</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>31240105378352000107550010001048651003174954</t>
+          <t>31251110594758000159550010000926651284940559</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>19953</v>
+        <v>40062</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BICI RAVA PRESSURE 21V C/CAMBIO 29"X19" CZ/PT NAC.</t>
+          <t>BIC. ARO 16 BABY GIRL LILAS FEMININA COM CESTINHA ROSA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>726.3636299999999</v>
+        <v>194.495</v>
       </c>
       <c r="E11" t="n">
-        <v>726.3636299999999</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>45320.37512731482</v>
+        <v>194.495</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>45975.33541666667</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>31240105378352000107550010001048651003174954</t>
+          <t>31251110594758000159550010000926651284940559</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>19946</v>
+        <v>40061</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BICI RAVA PRESSURE 21V C/CAMBIO 29"X17" PT/VM NAC.</t>
+          <t>BIC. ARO 16 BABY GIRL ROSA FEMININA COM CESTINHA ROSA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>726.3636299999999</v>
+        <v>194.4933333333</v>
       </c>
       <c r="E12" t="n">
-        <v>726.3636299999999</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>45320.37512731482</v>
+        <v>194.4933333333</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>45975.33541666667</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>31240105378352000107550010001048651003174954</t>
+          <t>31251110594758000159550010000926651284940559</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>19951</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>40061</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BICI RAVA PRESSURE 21V C/CAMBIO 29"X19" PT/VM NAC.</t>
+          <t>BIC. ARO 16 BABY GIRL ROSA FEMININA COM CESTINHA ROSA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>726.3636299999999</v>
+        <v>194.49</v>
       </c>
       <c r="E13" t="n">
-        <v>726.3636299999999</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>45320.37512731482</v>
+        <v>194.49</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>45887.63888888889</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>31240105378352000107550010001048651003174954</t>
+          <t>31250810594758000159550010000900171169402985</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1200016</v>
+        <v>40252</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PEDIVELA TOURNEY FC-TY301 42/34/24D 175MM QUADRADA 6/7/8V SE</t>
+          <t>BIC. ARO 20 MTB S/M CHARMY FEMININA C/ CESTAO - LILAS</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>116.5</v>
+        <v>227.435</v>
       </c>
       <c r="E14" t="n">
-        <v>116.5</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>45960.55902777778</v>
+        <v>227.435</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>45975.33541666667</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>42251022705434000120550010003873811961780581</t>
+          <t>31251110594758000159550010000926651284940559</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1140723</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>402512</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FREIO DISCO HIDRAULICO TRASEIRO ALTUS BL-MT200/BR-MT200 1700</t>
+          <t>BIC. ARO 20 MTB S/M CHARMY FEMININA C/ CESTAO - ROSA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>119.79</v>
+        <v>227.43</v>
       </c>
       <c r="E15" t="n">
-        <v>119.79</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>45960.55902777778</v>
+        <v>227.43</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>45887.63888888889</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>42251022705434000120550010003873811961780581</t>
+          <t>31250810594758000159550010000900171169402985</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1080141</v>
+        <v>402512</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RODA LIVRE TOURNEY MF-TZ500 14/34D 7V</t>
+          <t>BIC. ARO 20 MTB S/M CHARMY FEMININA C/ CESTAO - ROSA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>73.26000000000001</v>
+        <v>227.4333333333</v>
       </c>
       <c r="E16" t="n">
-        <v>73.26000000000001</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>45960.55902777778</v>
+        <v>227.4333333333</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>45975.33541666667</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>42251022705434000120550010003873811961780581</t>
+          <t>31251110594758000159550010000926651284940559</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1140499</v>
+        <v>19950</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ALAVANCA CAMBIO/FREIO ST-EF500 EZ FIRE PARA V BRAKE 7V DIR P</t>
+          <t>BICI RAVA PRESSURE 21V C/CAMBIO 29"X17" CZ/PT NAC.</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>61.38</v>
+        <v>726.3636299999999</v>
       </c>
       <c r="E17" t="n">
-        <v>61.38</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>45960.55902777778</v>
+        <v>726.3636299999999</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>45320.37512731482</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>42251022705434000120550010003873811961780581</t>
+          <t>31240105378352000107550010001048651003174954</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1140501</v>
+        <v>19946</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ALAVANCA CAMBIO/FREIO ST-EF500 EZ FIRE PARA V BRAKE 3V ESQ P</t>
+          <t>BICI RAVA PRESSURE 21V C/CAMBIO 29"X17" PT/VM NAC.</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>61.38</v>
+        <v>726.3636299999999</v>
       </c>
       <c r="E18" t="n">
-        <v>61.38</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>45960.55902777778</v>
+        <v>726.3636299999999</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>45320.37512731482</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>42251022705434000120550010003873811961780581</t>
+          <t>31240105378352000107550010001048651003174954</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14689</v>
+        <v>19953</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BICICLETA 20 MILANO FAST M2: VB S/MARCHA ARO AERO CUBO FERRO SEM CESTA AZUL</t>
+          <t>BICI RAVA PRESSURE 21V C/CAMBIO 29"X19" CZ/PT NAC.</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>454.88</v>
+        <v>726.3636299999999</v>
       </c>
       <c r="E19" t="n">
-        <v>454.88</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>45971.59717592593</v>
+        <v>726.3636299999999</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>45320.37512731482</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>31251165304198000142550010000732621602826350</t>
+          <t>31240105378352000107550010001048651003174954</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10427</v>
+        <v>19951</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BICICLETA 24 MILANO AUTUMN FEM. M2: VB C/MARCHA ARO AERO CUBO FERRO COM CESTA RO</t>
+          <t>BICI RAVA PRESSURE 21V C/CAMBIO 29"X19" PT/VM NAC.</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>545.45</v>
+        <v>726.3636299999999</v>
       </c>
       <c r="E20" t="n">
-        <v>545.45</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>45971.59717592593</v>
+        <v>726.3636299999999</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>45320.37512731482</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>31251165304198000142550010000732621602826350</t>
+          <t>31240105378352000107550010001048651003174954</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12835</v>
+        <v>14689</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BICICLETA 24 MILANO AUTUMN FEM. M2: VB C/MARCHA ARO AERO CUBO FERRO COM CESTA VI</t>
+          <t>BICICLETA 20 MILANO FAST M2: VB S/MARCHA ARO AERO CUBO FERRO SEM CESTA AZUL</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>545.45</v>
+        <v>454.88</v>
       </c>
       <c r="E21" t="n">
-        <v>545.45</v>
-      </c>
-      <c r="F21" s="2" t="n">
+        <v>454.88</v>
+      </c>
+      <c r="F21" s="3" t="n">
         <v>45971.59717592593</v>
       </c>
       <c r="G21" t="inlineStr">
@@ -1016,23 +1031,23 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11777</v>
+        <v>10427</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BICO DE AGUIA ACO CROMADO JKS MOD.MONARK 86</t>
+          <t>BICICLETA 24 MILANO AUTUMN FEM. M2: VB C/MARCHA ARO AERO CUBO FERRO COM CESTA RO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>6.79</v>
+        <v>545.45</v>
       </c>
       <c r="E22" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="F22" s="2" t="n">
+        <v>545.45</v>
+      </c>
+      <c r="F22" s="3" t="n">
         <v>45971.59717592593</v>
       </c>
       <c r="G22" t="inlineStr">
@@ -1043,23 +1058,23 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>17407</v>
+        <v>12835</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BUZINA P/BICICLETA MODELO CORNETA DFA JUMBINHO PRETA</t>
+          <t>BICICLETA 24 MILANO AUTUMN FEM. M2: VB C/MARCHA ARO AERO CUBO FERRO COM CESTA VI</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>57.95</v>
+        <v>545.45</v>
       </c>
       <c r="E23" t="n">
-        <v>57.95</v>
-      </c>
-      <c r="F23" s="2" t="n">
+        <v>545.45</v>
+      </c>
+      <c r="F23" s="3" t="n">
         <v>45971.59717592593</v>
       </c>
       <c r="G23" t="inlineStr">
@@ -1070,23 +1085,23 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>14761</v>
+        <v>11777</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GRAXA R-LINE BRANCA 200GR</t>
+          <t>BICO DE AGUIA ACO CROMADO JKS MOD.MONARK 86</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>43.4</v>
+        <v>6.79</v>
       </c>
       <c r="E24" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="F24" s="2" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="F24" s="3" t="n">
         <v>45971.59717592593</v>
       </c>
       <c r="G24" t="inlineStr">
@@ -1097,28 +1112,28 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1090060</v>
+        <v>17407</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CORRENTE CN-M6100 126L 12V COM QUICK LINK</t>
+          <t>BUZINA P/BICICLETA MODELO CORNETA DFA JUMBINHO PRETA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>125.57</v>
+        <v>57.95</v>
       </c>
       <c r="E25" t="n">
-        <v>125.57</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>45777.47708333333</v>
+        <v>57.95</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>45971.59717592593</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>42250422705434000120550010003665951417806195</t>
+          <t>31251165304198000142550010000732621602826350</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1155,7 @@
       <c r="E26" t="n">
         <v>99.15000000000001</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="3" t="n">
         <v>45777.47708333333</v>
       </c>
       <c r="G26" t="inlineStr">
@@ -1151,23 +1166,23 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1080175</v>
+        <v>1090060</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RODA LIVRE TOURNEY MF-TZ510 14/34D 7V</t>
+          <t>CORRENTE CN-M6100 126L 12V COM QUICK LINK</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>62.76</v>
+        <v>125.57</v>
       </c>
       <c r="E27" t="n">
-        <v>62.76</v>
-      </c>
-      <c r="F27" s="2" t="n">
+        <v>125.57</v>
+      </c>
+      <c r="F27" s="3" t="n">
         <v>45777.47708333333</v>
       </c>
       <c r="G27" t="inlineStr">
@@ -1178,233 +1193,857 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1080174</v>
+        <v>1140723</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RODA LIVRE TOURNEY MF-TZ510 14/28D 7V</t>
+          <t>FREIO DISCO HIDRAULICO TRASEIRO ALTUS BL-MT200/BR-MT200 1700</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>49.57</v>
+        <v>119.79</v>
       </c>
       <c r="E28" t="n">
-        <v>49.57</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>45777.47708333333</v>
+        <v>119.79</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>45960.55902777778</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>42250422705434000120550010003665951417806195</t>
+          <t>42251022705434000120550010003873811961780581</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>40051</t>
-        </is>
+      <c r="A29" t="n">
+        <v>14761</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIC. ARO 16 BABY BOY MASCULINA VERMELHA</t>
+          <t>GRAXA R-LINE BRANCA 200GR</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>2</v>
       </c>
       <c r="D29" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>45971.59717592593</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>31251165304198000142550010000732621602826350</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>91889</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>JG. FREIO SUECO TRASEIRO COMPLETO KANAMURA KK13</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>36.625</v>
+      </c>
+      <c r="E30" t="n">
+        <v>36.625</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>45905.42013888889</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>31250903585187000120550010002994471597353431</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1200016</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PEDIVELA TOURNEY FC-TY301 42/34/24D 175MM QUADRADA 6/7/8V SE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>45960.55902777778</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>42251022705434000120550010003873811961780581</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1080141</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>RODA LIVRE TOURNEY MF-TZ500 14/34D 7V</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>45960.55902777778</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>42251022705434000120550010003873811961780581</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1080174</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>RODA LIVRE TOURNEY MF-TZ510 14/28D 7V</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>49.57</v>
+      </c>
+      <c r="E33" t="n">
+        <v>49.57</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>45777.47708333333</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>42250422705434000120550010003665951417806195</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1080175</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RODA LIVRE TOURNEY MF-TZ510 14/34D 7V</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>10</v>
+      </c>
+      <c r="D34" t="n">
+        <v>62.76</v>
+      </c>
+      <c r="E34" t="n">
+        <v>62.76</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>45777.47708333333</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>42250422705434000120550010003665951417806195</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3020</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>X BIC. ARO 20 MTB S/M  EVOLUTION MASCULINA VERMELHA</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>183.78</v>
+      </c>
+      <c r="E35" t="n">
+        <v>183.78</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>45915.32291666666</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>31250910594758000159550010000909261581399408</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>codigo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>nome_produto</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ultimo_preco</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>penultimo_preco</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>preco_venda</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1140501</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ALAVANCA CAMBIO/FREIO ST-EF500 EZ FIRE PARA V BRAKE 3V ESQ P</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>61.38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61.38</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1140499</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ALAVANCA CAMBIO/FREIO ST-EF500 EZ FIRE PARA V BRAKE 7V DIR P</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>61.38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.38</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>40052</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BIC. ARO 16 BABY BOY MASCULINA AZUL</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>194.49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>194.49</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>40054</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BIC. ARO 16 BABY BOY MASCULINA GRAFITE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>194.49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>194.49</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>40055</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BIC. ARO 16 BABY BOY MASCULINA NEON AMAR.</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>194.49</v>
+      </c>
+      <c r="D6" t="n">
+        <v>194.49</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>40057</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BIC. ARO 16 BABY BOY MASCULINA PRETA SEM PLATE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>194.49</v>
+      </c>
+      <c r="D7" t="n">
+        <v>194.49</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4005</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BIC. ARO 16 BABY BOY MASCULINA VERDE</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>194.495</v>
       </c>
-      <c r="E29" t="n">
+      <c r="D8" t="n">
         <v>194.495</v>
       </c>
-      <c r="F29" s="2" t="n">
-        <v>45887.63888888889</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>31250810594758000159550010000900171169402985</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>40051</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BIC. ARO 16 BABY BOY MASCULINA VERMELHA</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>194.495</v>
+      </c>
+      <c r="D9" t="n">
+        <v>194.495</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40056</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BIC. ARO 16 BABY GIRL BRANCA FEMININA COM CESTINHA LILAS</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>194.495</v>
+      </c>
+      <c r="D10" t="n">
+        <v>194.495</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>40062</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BIC. ARO 16 BABY GIRL LILAS FEMININA COM CESTINHA ROSA</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>194.495</v>
+      </c>
+      <c r="D11" t="n">
+        <v>194.495</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40061</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BIC. ARO 16 BABY GIRL ROSA FEMININA COM CESTINHA ROSA</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>194.4933333333</v>
+      </c>
+      <c r="D12" t="n">
+        <v>194.4933333333</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>40061</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BIC. ARO 16 BABY GIRL ROSA FEMININA COM CESTINHA ROSA</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>194.49</v>
+      </c>
+      <c r="D13" t="n">
+        <v>194.49</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>40252</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BIC. ARO 20 MTB S/M CHARMY FEMININA C/ CESTAO - LILAS</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>227.435</v>
+      </c>
+      <c r="D14" t="n">
+        <v>227.435</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>402512</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BIC. ARO 20 MTB S/M CHARMY FEMININA C/ CESTAO - ROSA</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>227.43</v>
+      </c>
+      <c r="D15" t="n">
+        <v>227.43</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>402512</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BIC. ARO 20 MTB S/M CHARMY FEMININA C/ CESTAO - ROSA</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>227.4333333333</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227.4333333333</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>19950</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BICI RAVA PRESSURE 21V C/CAMBIO 29"X17" CZ/PT NAC.</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>726.3636299999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>726.3636299999999</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>19946</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BICI RAVA PRESSURE 21V C/CAMBIO 29"X17" PT/VM NAC.</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>726.3636299999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>726.3636299999999</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19953</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BICI RAVA PRESSURE 21V C/CAMBIO 29"X19" CZ/PT NAC.</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>726.3636299999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>726.3636299999999</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19951</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BICI RAVA PRESSURE 21V C/CAMBIO 29"X19" PT/VM NAC.</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>726.3636299999999</v>
+      </c>
+      <c r="D20" t="n">
+        <v>726.3636299999999</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>14689</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BICICLETA 20 MILANO FAST M2: VB S/MARCHA ARO AERO CUBO FERRO SEM CESTA AZUL</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>454.88</v>
+      </c>
+      <c r="D21" t="n">
+        <v>454.88</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10427</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BICICLETA 24 MILANO AUTUMN FEM. M2: VB C/MARCHA ARO AERO CUBO FERRO COM CESTA RO</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>545.45</v>
+      </c>
+      <c r="D22" t="n">
+        <v>545.45</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12835</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BICICLETA 24 MILANO AUTUMN FEM. M2: VB C/MARCHA ARO AERO CUBO FERRO COM CESTA VI</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>545.45</v>
+      </c>
+      <c r="D23" t="n">
+        <v>545.45</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11777</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BICO DE AGUIA ACO CROMADO JKS MOD.MONARK 86</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>17407</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BUZINA P/BICICLETA MODELO CORNETA DFA JUMBINHO PRETA</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>57.95</v>
+      </c>
+      <c r="D25" t="n">
+        <v>57.95</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1090030</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CORRENTE CN-HG53 114L 9V</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>99.15000000000001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>99.15000000000001</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1090060</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CORRENTE CN-M6100 126L 12V COM QUICK LINK</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>125.57</v>
+      </c>
+      <c r="D27" t="n">
+        <v>125.57</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1140723</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FREIO DISCO HIDRAULICO TRASEIRO ALTUS BL-MT200/BR-MT200 1700</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>119.79</v>
+      </c>
+      <c r="D28" t="n">
+        <v>119.79</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>14761</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GRAXA R-LINE BRANCA 200GR</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>40055</t>
-        </is>
+      <c r="A30" t="n">
+        <v>91889</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIC. ARO 16 BABY BOY MASCULINA NEON AMAR.</t>
+          <t>JG. FREIO SUECO TRASEIRO COMPLETO KANAMURA KK13</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>36.625</v>
       </c>
       <c r="D30" t="n">
-        <v>194.49</v>
-      </c>
-      <c r="E30" t="n">
-        <v>194.49</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>45887.63888888889</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>31250810594758000159550010000900171169402985</t>
-        </is>
-      </c>
+        <v>36.625</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>40061</t>
-        </is>
+      <c r="A31" t="n">
+        <v>1200016</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIC. ARO 16 BABY GIRL ROSA FEMININA COM CESTINHA ROSA</t>
+          <t>PEDIVELA TOURNEY FC-TY301 42/34/24D 175MM QUADRADA 6/7/8V SE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>116.5</v>
       </c>
       <c r="D31" t="n">
-        <v>194.49</v>
-      </c>
-      <c r="E31" t="n">
-        <v>194.49</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>45887.63888888889</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>31250810594758000159550010000900171169402985</t>
-        </is>
-      </c>
+        <v>116.5</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>40052</t>
-        </is>
+      <c r="A32" t="n">
+        <v>1080141</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIC. ARO 16 BABY BOY MASCULINA AZUL</t>
+          <t>RODA LIVRE TOURNEY MF-TZ500 14/34D 7V</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>73.26000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>194.49</v>
-      </c>
-      <c r="E32" t="n">
-        <v>194.49</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>45887.63888888889</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>31250810594758000159550010000900171169402985</t>
-        </is>
-      </c>
+        <v>73.26000000000001</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>40054</t>
-        </is>
+      <c r="A33" t="n">
+        <v>1080174</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIC. ARO 16 BABY BOY MASCULINA GRAFITE</t>
+          <t>RODA LIVRE TOURNEY MF-TZ510 14/28D 7V</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>49.57</v>
       </c>
       <c r="D33" t="n">
-        <v>194.49</v>
-      </c>
-      <c r="E33" t="n">
-        <v>194.49</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>45887.63888888889</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>31250810594758000159550010000900171169402985</t>
-        </is>
-      </c>
+        <v>49.57</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>40057</t>
-        </is>
+      <c r="A34" t="n">
+        <v>1080175</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIC. ARO 16 BABY BOY MASCULINA PRETA SEM PLATE</t>
+          <t>RODA LIVRE TOURNEY MF-TZ510 14/34D 7V</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>62.76</v>
       </c>
       <c r="D34" t="n">
-        <v>194.49</v>
-      </c>
-      <c r="E34" t="n">
-        <v>194.49</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>45887.63888888889</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>31250810594758000159550010000900171169402985</t>
-        </is>
-      </c>
+        <v>62.76</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>402512</t>
-        </is>
+      <c r="A35" t="n">
+        <v>3020</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIC. ARO 20 MTB S/M CHARMY FEMININA C/ CESTAO - ROSA</t>
+          <t>X BIC. ARO 20 MTB S/M  EVOLUTION MASCULINA VERMELHA</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>183.78</v>
       </c>
       <c r="D35" t="n">
-        <v>227.43</v>
-      </c>
-      <c r="E35" t="n">
-        <v>227.43</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>45887.63888888889</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>31250810594758000159550010000900171169402985</t>
-        </is>
-      </c>
+        <v>183.78</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
